--- a/data/GDP.xlsx
+++ b/data/GDP.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Individual study preparation/UN CONFLICT/cleaned data /New format/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView windowWidth="19100" windowHeight="7700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>Bahrain</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -50,6 +40,9 @@
     <t>Jordan</t>
   </si>
   <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -68,53 +61,383 @@
     <t>Turkey</t>
   </si>
   <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>United Arab Emirates</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Estimates Start After</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="11"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,25 +445,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -193,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -228,7 +844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -402,2888 +1018,3212 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.8333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8333333333333" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1666666666667" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.8333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.8333333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.8333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1666666666667" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" hidden="1" spans="1:17">
+      <c r="A2" s="2">
         <v>1960</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
         <v>4199134389</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>1684121535</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>2598500000</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>857704431.70000005</v>
-      </c>
-      <c r="N2" s="1">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2">
+        <v>857704431.7</v>
+      </c>
+      <c r="O2" s="2">
         <v>13995067818</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:17">
+      <c r="A3" s="2">
         <v>1961</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
         <v>4426949094</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>1831700364</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>3138500000</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>945244992.20000005</v>
-      </c>
-      <c r="N3" s="1">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2">
+        <v>945244992.2</v>
+      </c>
+      <c r="O3" s="2">
         <v>8022222222</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:17">
+      <c r="A4" s="2">
         <v>1962</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
         <v>4693566416</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>1954634836</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>2510000000</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2">
         <v>1110565864</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="2">
         <v>8922222222</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="P4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:17">
+      <c r="A5" s="2">
         <v>1963</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
         <v>4928628018</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>1978437693</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>2992333333</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="2">
         <v>1200447429</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="2">
         <v>10355555556</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="P5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:17">
+      <c r="A6" s="2">
         <v>1964</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
         <v>5379845648</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>2340521143</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>3405333333</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2">
         <v>1339494290</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="2">
         <v>11177777778</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="P6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:17">
+      <c r="A7" s="2">
         <v>1965</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
         <v>5111621014</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>6197319929</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2">
         <v>3663333333</v>
       </c>
-      <c r="H7" s="1">
-        <v>599831979.79999995</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>63287594.509999998</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="H7" s="2">
+        <v>599831979.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2097451694.2033</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2">
+        <v>63287594.51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="2">
         <v>1472036551</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="2">
         <v>11944444444</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="P7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:17">
+      <c r="A8" s="2">
         <v>1966</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
         <v>5339520613</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>6789938672</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
         <v>3980000000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>658078969.5</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>67768132.180000007</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="I8" s="1">
+        <v>2391486978.43741</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2">
+        <v>67768132.18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2">
         <v>1342287557</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="2">
         <v>14122222222</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="P8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:17">
+      <c r="A9" s="2">
         <v>1967</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
         <v>5579168510</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>7555383690</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
         <v>4030000000</v>
       </c>
-      <c r="H9" s="1">
-        <v>631755810.70000005</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="H9" s="2">
+        <v>631755810.7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2441893027.16326</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
         <v>107152720.2</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2">
         <v>1580229795</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="2">
         <v>15666666667</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="P9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:17">
+      <c r="A10" s="2">
         <v>1968</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
         <v>6109112150</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>8623172960</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>2896947634</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>4619000000</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>561187342.5</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>188864890.80000001</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="I10" s="1">
+        <v>2663119574.34892</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2">
+        <v>188864890.8</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2">
         <v>4187777711</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="2">
         <v>1753746370</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="2">
         <v>17500000000</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="P10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:17">
+      <c r="A11" s="2">
         <v>1969</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
         <v>6861743341</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>9743089608</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>3008120975</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>5329333333</v>
       </c>
-      <c r="H11" s="1">
-        <v>698963875.70000005</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="H11" s="2">
+        <v>698963875.7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2769532343.88127</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2">
         <v>239980801.5</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2">
         <v>4485777644</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="2">
         <v>2245011572</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="2">
         <v>19466666667</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="P11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:17">
+      <c r="A12" s="2">
         <v>1970</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
         <v>7682491836</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>10976245154</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>3281713806</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>6267666667</v>
       </c>
-      <c r="H12" s="1">
-        <v>639596751.60000002</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="H12" s="2">
+        <v>639596751.6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2873984878.18538</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2">
         <v>256299496</v>
       </c>
-      <c r="K12" s="1">
-        <v>301791301.80000001</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
+        <v>301791301.8</v>
+      </c>
+      <c r="M12" s="2">
         <v>5377333333</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="2">
         <v>2140383696</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="2">
         <v>17086956522</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="P12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:17">
+      <c r="A13" s="2">
         <v>1971</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
         <v>8266003571</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>13731801564</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>3865346535</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>5851750000</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>678241389</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>301010587.10000002</v>
-      </c>
-      <c r="K13" s="1">
-        <v>387700084.30000001</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="I13" s="1">
+        <v>3880370401.57259</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2">
+        <v>301010587.1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>387700084.3</v>
+      </c>
+      <c r="M13" s="2">
         <v>7184853348</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="2">
         <v>2589851693</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="2">
         <v>16256619964</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="P13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:17">
+      <c r="A14" s="2">
         <v>1972</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
         <v>8763960703</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>17153463263</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>4113848002</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>7496250000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>788574629</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>366857738.39999998</v>
-      </c>
-      <c r="K14" s="1">
-        <v>510259940.69999999</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="I14" s="1">
+        <v>4451200972.9401</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2">
+        <v>366857738.4</v>
+      </c>
+      <c r="L14" s="2">
+        <v>510259940.7</v>
+      </c>
+      <c r="M14" s="2">
         <v>9664157499</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="2">
         <v>3059682162</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="2">
         <v>20431095406</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="P14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:17">
+      <c r="A15" s="2">
         <v>1973</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
         <v>9616725366</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>27081698249</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>5134367778</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>9692000000</v>
       </c>
-      <c r="H15" s="1">
-        <v>943700547.79999995</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>483033932.10000002</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="H15" s="2">
+        <v>943700547.8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5408293998.65138</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2">
+        <v>483033932.1</v>
+      </c>
+      <c r="L15" s="2">
         <v>793884368</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="2">
         <v>14947391140</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="2">
         <v>3239488105</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="2">
         <v>25724381625</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="P15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:17">
+      <c r="A16" s="2">
         <v>1974</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
         <v>9015166840</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>46209092072</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>11516762614</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>13986250000</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>1197454207</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="1">
+        <v>13004774556.6166</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="2">
         <v>1645917776</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="2">
         <v>2401403227</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="2">
         <v>45412957746</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="2">
         <v>5159557176</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="2">
         <v>35599913836</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="P16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:17">
+      <c r="A17" s="2">
         <v>1975</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>489914760.69999999</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>489914760.7</v>
+      </c>
+      <c r="D17" s="2">
         <v>11437965585</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>51776222350</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>13458516763</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>13028166667</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>1363039400</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="1">
+        <v>12024138275.8621</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2">
         <v>2096699189</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="2">
         <v>2512784033</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="2">
         <v>46773368206</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="2">
         <v>6826980767</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="2">
         <v>44633707243</v>
       </c>
-      <c r="O17" s="1">
-        <v>14720672506.500401</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="P17" s="2">
+        <v>14720672506.5004</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:17">
+      <c r="A18" s="2">
         <v>1976</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>576090073.70000005</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>576090073.7</v>
+      </c>
+      <c r="D18" s="2">
         <v>13360476862</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>68055295080</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>17754825601</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>12359875000</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>1708734940</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="1">
+        <v>13131668946.6484</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2">
         <v>2560220035</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="2">
         <v>3284301332</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="2">
         <v>64005665722</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="2">
         <v>7633528921</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="2">
         <v>51280134554</v>
       </c>
-      <c r="O18" s="1">
-        <v>19213022691.052601</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="P18" s="2">
+        <v>19213022691.0526</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:17">
+      <c r="A19" s="2">
         <v>1977</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
         <v>734887974</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>14636028767</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>80600122702</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>19838130715</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>14390000000</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>2096568479</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="1">
+        <v>14135729588.2763</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="2">
         <v>2741169948</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="2">
         <v>3617580172</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="2">
         <v>74188249979</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="2">
         <v>7696011360</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="2">
         <v>58676813687</v>
       </c>
-      <c r="O19" s="1">
-        <v>24871775164.604301</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="P19" s="2">
+        <v>24871775164.6043</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:17">
+      <c r="A20" s="2">
         <v>1978</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>964026512.20000005</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>964026512.2</v>
+      </c>
+      <c r="D20" s="2">
         <v>14849909491</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>77994316622</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>23762275652</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>13967647059</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>2602748691</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="1">
+        <v>15500908760.4507</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2">
         <v>2740301390</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="2">
         <v>4052000413</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="2">
         <v>80265619485</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="2">
         <v>9275203106</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="2">
         <v>65147022486</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="2">
         <v>23775831783.4263</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="Q20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:17">
+      <c r="A21" s="2">
         <v>1979</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
         <v>1288715210</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>18150000571</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>90391877325</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>37816457839</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>17796000000</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>3271728272</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="1">
+        <v>24746019536.903</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2">
         <v>3733352635</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="2">
         <v>5633000318</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="2">
         <v>111860000000</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="2">
         <v>9929682184</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="2">
         <v>89394085658</v>
       </c>
-      <c r="O21" s="1">
-        <v>31225463217.758202</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="P21" s="2">
+        <v>31225463217.7582</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
         <v>1980</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>3072698328</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>2154311277</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>22912500556</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>94362275579</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>53405689130</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>21884705882</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>3910036925</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="1">
+        <v>28638550499.4451</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4074000000</v>
+      </c>
+      <c r="K22" s="2">
         <v>5981760278</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="2">
         <v>7829094613</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="2">
         <v>164542000000</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="2">
         <v>13062421025</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="2">
         <v>68789289566</v>
       </c>
-      <c r="O22" s="1">
-        <v>43598748449.047897</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="P22" s="2">
+        <v>43598748449.0479</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
         <v>1981</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>3467819149</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>2087496374</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>23405404730</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>100499000000</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>38424991534</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>23258596491</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>4384685230</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="1">
+        <v>25056672166.4275</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3894000000</v>
+      </c>
+      <c r="K23" s="2">
         <v>7259120151</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="2">
         <v>8661263764</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="2">
         <v>184292000000</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="2">
         <v>15518199247</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="2">
         <v>71040020140</v>
       </c>
-      <c r="O23" s="1">
-        <v>49333424135.113098</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="P23" s="2">
+        <v>49333424135.1131</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
         <v>1982</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>3645744681</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>2159242417</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>25592365394</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>125949000000</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>42595309883</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>24539341564</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>4680567376</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="1">
+        <v>21577977770.059</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2656000000</v>
+      </c>
+      <c r="K24" s="2">
         <v>7554719456</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="2">
         <v>7596703214</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="2">
         <v>153239000000</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="2">
         <v>16298905397</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="2">
         <v>64546332581</v>
       </c>
-      <c r="O24" s="1">
-        <v>46622718605.284698</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="P24" s="2">
+        <v>46622718605.2847</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
         <v>1983</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>3735106383</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>2160364071</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>28137369499</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>156365000000</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>40595046639</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>27442580071</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>4920407601</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="1">
+        <v>20869434305.3173</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3660000000</v>
+      </c>
+      <c r="K25" s="2">
         <v>7932541691</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="2">
         <v>6467582308</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="2">
         <v>129172000000</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="2">
         <v>17589184557</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="2">
         <v>61678280116</v>
       </c>
-      <c r="O25" s="1">
-        <v>42803323345.137604</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="P25" s="2">
+        <v>42803323345.1376</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
         <v>1984</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>3905585106</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>2278248953</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>30642873038</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>162277000000</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>46802508845</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>26043655184</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>4966710013</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="1">
+        <v>21697297872.3404</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4327000000</v>
+      </c>
+      <c r="K26" s="2">
         <v>8821366532</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="2">
         <v>6704395824</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="2">
         <v>119625000000</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="2">
         <v>17503082982</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="2">
         <v>59989909458</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="2">
         <v>41807954235.903</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="Q26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
         <v>1985</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>3651861702</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>2430411900</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>34689560465</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>180184000000</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>48284979093</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>24121638986</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>4993829194</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="1">
+        <v>21442619680.8511</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3614000000</v>
+      </c>
+      <c r="K27" s="2">
         <v>10005500579</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="2">
         <v>6153296456</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="2">
         <v>103898000000</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="2">
         <v>16403544511</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="2">
         <v>67234948265</v>
       </c>
-      <c r="O27" s="1">
-        <v>40603650231.544502</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="P27" s="2">
+        <v>40603650231.5445</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2">
         <v>1986</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>3052393617</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>3090734463</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>35880262675</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>209095000000</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>47127693792</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>29702243917</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>6401380000</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="1">
+        <v>17903681693.0489</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2817000000</v>
+      </c>
+      <c r="K28" s="2">
         <v>7323822251</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="2">
         <v>5053021951</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="2">
         <v>86961922765</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="2">
         <v>13293209270</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="2">
         <v>75728009963</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="2">
         <v>33943612094.7971</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="Q28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
         <v>1987</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>3392021011</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>3704813886</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>40507934171</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>134010000000</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>56609842393</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>35477234542</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>6755599114</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="1">
+        <v>22365734481.5213</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3298000000</v>
+      </c>
+      <c r="K29" s="2">
         <v>7811183095</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="2">
         <v>5446428681</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="2">
         <v>85695861148</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="2">
         <v>11356215713</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="2">
         <v>87172789528</v>
       </c>
-      <c r="O29" s="1">
-        <v>36384908744.211403</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="P29" s="2">
+        <v>36384908744.2114</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2">
         <v>1988</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>3702393617</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>4278792597</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>35044634015</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>123058000000</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>62503055645</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>43893303709</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>6277197435</v>
       </c>
       <c r="I30" s="1">
+        <v>20692472759.8566</v>
+      </c>
+      <c r="J30" s="2">
         <v>3313540068</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="2">
         <v>8386215865</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="2">
         <v>6038187033</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="2">
         <v>88256074766</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="2">
         <v>10577042355</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="2">
         <v>90852814005</v>
       </c>
-      <c r="O30" s="1">
-        <v>36275674203.214401</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="P30" s="2">
+        <v>36275674203.2144</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2">
         <v>1989</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>3863563830</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>4563482604</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>39648442534</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>120496000000</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>65641363783</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>44599771760</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>4220945005</v>
       </c>
       <c r="I31" s="1">
+        <v>24312117767.1886</v>
+      </c>
+      <c r="J31" s="2">
         <v>2717998688</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="2">
         <v>9372171652</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="2">
         <v>6487912088</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="2">
         <v>95344459279</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="2">
         <v>9853396226</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="2">
         <v>107143000000</v>
       </c>
-      <c r="O31" s="1">
-        <v>41464995913.919899</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="P31" s="2">
+        <v>41464995913.9199</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2">
         <v>1990</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>4229787234</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>5591130218</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>43130416913</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>124813000000</v>
       </c>
       <c r="F32" s="1">
-        <v>179886000000</v>
-      </c>
-      <c r="G32" s="1">
+        <v>17079068604.12</v>
+      </c>
+      <c r="G32" s="2">
         <v>52490327348</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>4160003917</v>
       </c>
       <c r="I32" s="1">
+        <v>18427777777.7778</v>
+      </c>
+      <c r="J32" s="2">
         <v>2838485354</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="2">
         <v>11685045514</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="2">
         <v>7360439423</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="2">
         <v>116778000000</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="2">
         <v>12308624284</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="2">
         <v>150676000000</v>
       </c>
-      <c r="O32" s="1">
-        <v>50701443748.297501</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="P32" s="2">
+        <v>50701443748.2975</v>
+      </c>
+      <c r="Q32" s="2">
         <v>5647251908</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:17">
+      <c r="A33" s="2">
         <v>1991</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>4616223404</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>5770197348</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>36970555899</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="E33" s="2">
+        <v>295443000000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5978866341.5</v>
+      </c>
+      <c r="G33" s="2">
         <v>59170286560</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>4344250257</v>
       </c>
       <c r="I33" s="1">
+        <v>11008793176.2223</v>
+      </c>
+      <c r="J33" s="2">
         <v>4451497288</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="2">
         <v>11341482445</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="2">
         <v>6883516484</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="2">
         <v>131336000000</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="2">
         <v>12981833333</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="2">
         <v>150028000000</v>
       </c>
-      <c r="O33" s="1">
-        <v>51552165622.446198</v>
-      </c>
-      <c r="P33" s="1">
+      <c r="P33" s="2">
+        <v>51552165622.4462</v>
+      </c>
+      <c r="Q33" s="2">
         <v>5930370370</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:17">
+      <c r="A34" s="2">
         <v>1992</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>4751063830</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>6912150456</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>41855986519</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="3">
+        <v>48887000000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7062004948.66667</v>
+      </c>
+      <c r="G34" s="2">
         <v>65771216421</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>5311329067</v>
       </c>
       <c r="I34" s="1">
+        <v>19858555214.7239</v>
+      </c>
+      <c r="J34" s="2">
         <v>5545921947</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="2">
         <v>12452275683</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="2">
         <v>7646153984</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="2">
         <v>136304000000</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="2">
         <v>13253565899</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="2">
         <v>158459000000</v>
       </c>
-      <c r="O34" s="1">
-        <v>54239171887.768997</v>
-      </c>
-      <c r="P34" s="1">
+      <c r="P34" s="2">
+        <v>54239171887.769</v>
+      </c>
+      <c r="Q34" s="2">
         <v>6463649985</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:17">
+      <c r="A35" s="2">
         <v>1993</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>5200265957</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>6590291048</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>46578631453</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>63743623232</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="F35" s="1">
+        <v>5043882313.35135</v>
+      </c>
+      <c r="G35" s="2">
         <v>65925583866</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>5605841536</v>
       </c>
       <c r="I35" s="1">
+        <v>23941391390.7285</v>
+      </c>
+      <c r="J35" s="2">
         <v>7535259851</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="2">
         <v>12493107932</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="2">
         <v>7156593654</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="2">
         <v>132151000000</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="2">
         <v>13695962019</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="2">
         <v>180170000000</v>
       </c>
-      <c r="O35" s="1">
-        <v>55625170253.336998</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="P35" s="2">
+        <v>55625170253.337</v>
+      </c>
+      <c r="Q35" s="2">
         <v>5368270615</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:17">
+      <c r="A36" s="2">
         <v>1994</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>5567553457</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>7425703929</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>51897983393</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>71841461173</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F36" s="1">
+        <v>4034180382.94323</v>
+      </c>
+      <c r="G36" s="2">
         <v>74669719505</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>6237739516</v>
       </c>
       <c r="I36" s="1">
+        <v>24848483838.3838</v>
+      </c>
+      <c r="J36" s="2">
         <v>9599127050</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="2">
         <v>12918855657</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="2">
         <v>7374450769</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="2">
         <v>134327000000</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="2">
         <v>10122020000</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="2">
         <v>130690000000</v>
       </c>
-      <c r="O36" s="1">
-        <v>59305093979.842003</v>
-      </c>
-      <c r="P36" s="1">
+      <c r="P36" s="2">
+        <v>59305093979.842</v>
+      </c>
+      <c r="Q36" s="2">
         <v>4167356037</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:17">
+      <c r="A37" s="2">
         <v>1995</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>5849467819</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>9826778784</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>60159245060</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>96419225744</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="1">
+        <v>3476714340.15771</v>
+      </c>
+      <c r="G37" s="2">
         <v>99968784246</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <v>6727446632</v>
       </c>
       <c r="I37" s="1">
+        <v>27191689008.0429</v>
+      </c>
+      <c r="J37" s="2">
         <v>11718795528</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="2">
         <v>13802600780</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="2">
         <v>8137911978</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="2">
         <v>142458000000</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="2">
         <v>11396706587</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="2">
         <v>169486000000</v>
       </c>
-      <c r="O37" s="1">
-        <v>65743666575.864899</v>
-      </c>
-      <c r="P37" s="1">
+      <c r="P37" s="2">
+        <v>65743666575.8649</v>
+      </c>
+      <c r="Q37" s="2">
         <v>4258788725</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:17">
+      <c r="A38" s="2">
         <v>1996</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>6101861436</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>9899623588</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>67629716981</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>120404000000</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="F38" s="1">
+        <v>6097546950.46068</v>
+      </c>
+      <c r="G38" s="2">
         <v>109774000000</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <v>6928359238</v>
       </c>
       <c r="I38" s="1">
+        <v>31493987641.9506</v>
+      </c>
+      <c r="J38" s="2">
         <v>13690217333</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="2">
         <v>15277763329</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="2">
         <v>9059340385</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="2">
         <v>157743000000</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="2">
         <v>13789560878</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="2">
         <v>181476000000</v>
       </c>
-      <c r="O38" s="1">
-        <v>73571233996.186295</v>
-      </c>
-      <c r="P38" s="1">
+      <c r="P38" s="2">
+        <v>73571233996.1863</v>
+      </c>
+      <c r="Q38" s="2">
         <v>5785685311</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:17">
+      <c r="A39" s="2">
         <v>1997</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>6349202394</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>9594298746</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>78436578171</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>113919000000</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="F39" s="1">
+        <v>6665364785.85996</v>
+      </c>
+      <c r="G39" s="2">
         <v>114544000000</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <v>7244402962</v>
       </c>
       <c r="I39" s="1">
+        <v>30354434553.2476</v>
+      </c>
+      <c r="J39" s="2">
         <v>15751867489</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="2">
         <v>15837451235</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="2">
         <v>11297802115</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="2">
         <v>164994000000</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="2">
         <v>14505233969</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="2">
         <v>189835000000</v>
       </c>
-      <c r="O39" s="1">
-        <v>78839008444.565506</v>
-      </c>
-      <c r="P39" s="1">
+      <c r="P39" s="2">
+        <v>78839008444.5655</v>
+      </c>
+      <c r="Q39" s="2">
         <v>6839039030</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:17">
+      <c r="A40" s="2">
         <v>1998</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>6183776596</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>10353506787</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>84828807556</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>110277000000</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="F40" s="1">
+        <v>10469000000</v>
+      </c>
+      <c r="G40" s="2">
         <v>115838000000</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="2">
         <v>7910621157</v>
       </c>
       <c r="I40" s="1">
+        <v>25941929461.9423</v>
+      </c>
+      <c r="J40" s="2">
         <v>17247179006</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="2">
         <v>14085373212</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="2">
         <v>10255495027</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="2">
         <v>145773000000</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="2">
         <v>15200846138</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="2">
         <v>269287000000</v>
       </c>
-      <c r="O40" s="1">
-        <v>75674336283.185806</v>
-      </c>
-      <c r="P40" s="1">
+      <c r="P40" s="2">
+        <v>75674336283.1858</v>
+      </c>
+      <c r="Q40" s="2">
         <v>6325219773</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:17">
+      <c r="A41" s="2">
         <v>1999</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>6621010372</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>10614455232</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>90710704807</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>113848000000</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="F41" s="3">
+        <v>18449000000</v>
+      </c>
+      <c r="G41" s="2">
         <v>117212000000</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="2">
         <v>8147494358</v>
       </c>
       <c r="I41" s="1">
+        <v>30121879434.954</v>
+      </c>
+      <c r="J41" s="2">
         <v>17391056369</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="2">
         <v>15710148244</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="2">
         <v>12393131868</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="2">
         <v>160957000000</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="2">
         <v>15873875969</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="2">
         <v>249751000000</v>
       </c>
-      <c r="O41" s="1">
-        <v>84445473110.959793</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="P41" s="2">
+        <v>84445473110.9598</v>
+      </c>
+      <c r="Q41" s="2">
         <v>7641101221</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:17">
+      <c r="A42" s="2">
         <v>2000</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>9062906915</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>10183317625</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>99838543960</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>109592000000</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="F42" s="3">
+        <v>25857000000</v>
+      </c>
+      <c r="G42" s="2">
         <v>132397000000</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <v>8457923836</v>
       </c>
       <c r="I42" s="1">
+        <v>37711864406.7797</v>
+      </c>
+      <c r="J42" s="2">
         <v>17260364842</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="2">
         <v>19507412224</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="2">
         <v>17759890110</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="2">
         <v>188442000000</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="2">
         <v>19325894913</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="2">
         <v>266568000000</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="2">
         <v>104337372362.151</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="2">
         <v>9636342275</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:17">
+      <c r="A43" s="2">
         <v>2001</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>8976207713</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>10567304189</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>97632008710</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>126879000000</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="F43" s="3">
+        <v>18936000000</v>
+      </c>
+      <c r="G43" s="2">
         <v>130752000000</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="2">
         <v>8973201975</v>
       </c>
       <c r="I43" s="1">
+        <v>34890772742.0933</v>
+      </c>
+      <c r="J43" s="2">
         <v>17649751244</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="2">
         <v>19452015605</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="2">
         <v>17538461538</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="2">
         <v>183012000000</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="2">
         <v>21099833784</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="2">
         <v>196005000000</v>
       </c>
-      <c r="O43" s="1">
-        <v>103311640571.81799</v>
-      </c>
-      <c r="P43" s="1">
+      <c r="P43" s="2">
+        <v>103311640571.818</v>
+      </c>
+      <c r="Q43" s="2">
         <v>9854042165</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:17">
+      <c r="A44" s="2">
         <v>2002</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>9632155053</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>11618269231</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>87850683979</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>128627000000</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="F44" s="3">
+        <v>18970000000</v>
+      </c>
+      <c r="G44" s="2">
         <v>121093000000</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="2">
         <v>9580414810</v>
       </c>
       <c r="I44" s="1">
+        <v>38137545245.1464</v>
+      </c>
+      <c r="J44" s="2">
         <v>19152238806</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="2">
         <v>20142782835</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="2">
         <v>19363736264</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="2">
         <v>188551000000</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="2">
         <v>21582248882</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="2">
         <v>232535000000</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="2">
         <v>109816201497.617</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="2">
         <v>10693278292</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:17">
+      <c r="A45" s="2">
         <v>2003</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>11074822074</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>14576896942</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>82924503943</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>153545000000</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="F45" s="3">
+        <v>15800000000</v>
+      </c>
+      <c r="G45" s="2">
         <v>126750000000</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="2">
         <v>10193292807</v>
       </c>
       <c r="I45" s="1">
+        <v>47875838926.1745</v>
+      </c>
+      <c r="J45" s="2">
         <v>20082918740</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="2">
         <v>21633810143</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="2">
         <v>23533791209</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="2">
         <v>214573000000</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="2">
         <v>21828144686</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="2">
         <v>303005000000</v>
       </c>
-      <c r="O45" s="1">
-        <v>124346358066.71201</v>
-      </c>
-      <c r="P45" s="1">
+      <c r="P45" s="2">
+        <v>124346358066.712</v>
+      </c>
+      <c r="Q45" s="2">
         <v>11777768087</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:17">
+      <c r="A46" s="2">
         <v>2004</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>13150166755</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>17422375000</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>78845185294</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>183697000000</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>36627901762</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>135419000000</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <v>11407566573</v>
       </c>
       <c r="I46" s="1">
+        <v>59440108585.0017</v>
+      </c>
+      <c r="J46" s="2">
         <v>20955223881</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="2">
         <v>24763589077</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="2">
         <v>31734065934</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="2">
         <v>258742000000</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="2">
         <v>25086930693</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="2">
         <v>392166000000</v>
       </c>
-      <c r="O46" s="1">
-        <v>147824370319.94601</v>
-      </c>
-      <c r="P46" s="1">
+      <c r="P46" s="2">
+        <v>147824370319.946</v>
+      </c>
+      <c r="Q46" s="2">
         <v>13873500888</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:17">
+      <c r="A47" s="2">
         <v>2005</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>15968726862</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>18703146375</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>89685725230</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>219846000000</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>49954890353</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>142838000000</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <v>12588665303</v>
       </c>
       <c r="I47" s="1">
+        <v>80797945205.4795</v>
+      </c>
+      <c r="J47" s="2">
         <v>21287562189</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="2">
         <v>31081924577</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="2">
         <v>44530494505</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="2">
         <v>328460000000</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="2">
         <v>28858965517</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="2">
         <v>482980000000</v>
       </c>
-      <c r="O47" s="1">
-        <v>180617018379.85001</v>
-      </c>
-      <c r="P47" s="1">
+      <c r="P47" s="2">
+        <v>180617018379.85</v>
+      </c>
+      <c r="Q47" s="2">
         <v>16753769532</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:17">
+      <c r="A48" s="2">
         <v>2006</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>18505053191</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>20403713461</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>107484000000</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>258646000000</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>65140293688</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>154511000000</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <v>15056936953</v>
       </c>
       <c r="I48" s="1">
+        <v>101550654720.882</v>
+      </c>
+      <c r="J48" s="2">
         <v>21796351575</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="2">
         <v>37215864759</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="2">
         <v>60882142857</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="2">
         <v>376900000000</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="2">
         <v>33332844575</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="2">
         <v>530900000000</v>
       </c>
-      <c r="O48" s="1">
-        <v>222105922396.18799</v>
-      </c>
-      <c r="P48" s="1">
+      <c r="P48" s="2">
+        <v>222105922396.188</v>
+      </c>
+      <c r="Q48" s="2">
         <v>19081722875</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:17">
+      <c r="A49" s="2">
         <v>2007</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>21730000000</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>24077470572</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>130479000000</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>337474000000</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>88840050497</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>179564000000</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>17110609732</v>
       </c>
       <c r="I49" s="1">
+        <v>114641097818.438</v>
+      </c>
+      <c r="J49" s="2">
         <v>24577114428</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="2">
         <v>42085305592</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="2">
         <v>79712087912</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="2">
         <v>415965000000</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="2">
         <v>40405006007</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="2">
         <v>647140000000</v>
       </c>
-      <c r="O49" s="1">
-        <v>257916133424.09799</v>
-      </c>
-      <c r="P49" s="1">
+      <c r="P49" s="2">
+        <v>257916133424.098</v>
+      </c>
+      <c r="Q49" s="2">
         <v>21656517484</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:17">
+      <c r="A50" s="2">
         <v>2008</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>25710877660</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>27839460964</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>162818000000</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>397190000000</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>131614000000</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>216760000000</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>21971835283</v>
       </c>
       <c r="I50" s="1">
+        <v>147395833333.333</v>
+      </c>
+      <c r="J50" s="2">
         <v>28829850746</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="2">
         <v>60905331599</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="2">
         <v>115270000000</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="2">
         <v>519797000000</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N50" s="1">
+      <c r="N50" s="3">
+        <v>52631000000</v>
+      </c>
+      <c r="O50" s="2">
         <v>730325000000</v>
       </c>
-      <c r="O50" s="1">
-        <v>315474615738.59802</v>
-      </c>
-      <c r="P50" s="1">
+      <c r="P50" s="2">
+        <v>315474615738.598</v>
+      </c>
+      <c r="Q50" s="2">
         <v>26910851362</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:17">
+      <c r="A51" s="2">
         <v>2009</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>22938218085</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>25942622951</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>188982000000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>398978000000</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>111661000000</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>208069000000</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>23818322958</v>
       </c>
       <c r="I51" s="1">
+        <v>105899930507.297</v>
+      </c>
+      <c r="J51" s="2">
         <v>35139635158</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="2">
         <v>48388296489</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="2">
         <v>97798351648</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="2">
         <v>429098000000</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1">
+      <c r="N51" s="3">
+        <v>53939000000</v>
+      </c>
+      <c r="O51" s="2">
         <v>614570000000</v>
       </c>
-      <c r="O51" s="1">
-        <v>253547358747.44699</v>
-      </c>
-      <c r="P51" s="1">
+      <c r="P51" s="2">
+        <v>253547358747.447</v>
+      </c>
+      <c r="Q51" s="2">
         <v>25130274124</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:17">
+      <c r="A52" s="2">
         <v>2010</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>25713271277</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>25562251656</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>218888000000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>467790000000</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>138517000000</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>233755000000</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>26425379437</v>
       </c>
       <c r="I52" s="1">
+        <v>115419050942.08</v>
+      </c>
+      <c r="J52" s="2">
         <v>38009950249</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="2">
         <v>58641352406</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="2">
         <v>125122000000</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="2">
         <v>526811000000</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1">
+      <c r="N52" s="3">
+        <v>60043000000</v>
+      </c>
+      <c r="O52" s="2">
         <v>731145000000</v>
       </c>
-      <c r="O52" s="1">
-        <v>286049336038.12097</v>
-      </c>
-      <c r="P52" s="1">
+      <c r="P52" s="2">
+        <v>286049336038.121</v>
+      </c>
+      <c r="Q52" s="2">
         <v>30906749533</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:17">
+      <c r="A53" s="2">
         <v>2011</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>28776595745</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>27427161523</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>236002000000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>592038000000</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>185750000000</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <v>261375000000</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="2">
         <v>28840263380</v>
       </c>
       <c r="I53" s="1">
+        <v>154027536231.884</v>
+      </c>
+      <c r="J53" s="2">
         <v>40078938640</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="2">
         <v>67937581274</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="2">
         <v>167775000000</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="2">
         <v>669507000000</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1">
+      <c r="N53" s="3">
+        <v>55173028416.8348</v>
+      </c>
+      <c r="O53" s="2">
         <v>774775000000</v>
       </c>
-      <c r="O53" s="1">
-        <v>348526072157.93103</v>
-      </c>
-      <c r="P53" s="1">
+      <c r="P53" s="2">
+        <v>348526072157.931</v>
+      </c>
+      <c r="Q53" s="2">
         <v>32726417878</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:17">
+      <c r="A54" s="2">
         <v>2012</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>30749308511</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>25012206090</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>276353000000</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>587209000000</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>218001000000</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <v>257642000000</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="2">
         <v>30937277606</v>
       </c>
       <c r="I54" s="1">
+        <v>174070025008.932</v>
+      </c>
+      <c r="J54" s="2">
         <v>43205095854</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="2">
         <v>76689206762</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="2">
         <v>186834000000</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="2">
         <v>733956000000</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="N54" s="3">
+        <v>40057284449.002</v>
+      </c>
+      <c r="O54" s="2">
         <v>788863000000</v>
       </c>
-      <c r="O54" s="1">
-        <v>373431994554.11798</v>
-      </c>
-      <c r="P54" s="1">
+      <c r="P54" s="2">
+        <v>373431994554.118</v>
+      </c>
+      <c r="Q54" s="2">
         <v>35401339869</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:18">
+      <c r="A55" s="2">
         <v>2013</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>32539441489</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>24054965481</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>286011000000</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>511621000000</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>234648000000</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>293315000000</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="2">
         <v>33593843662</v>
       </c>
       <c r="I55" s="1">
+        <v>174161495063.47</v>
+      </c>
+      <c r="J55" s="2">
         <v>44352417910</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="2">
         <v>78938881665</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="2">
         <v>198728000000</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="2">
         <v>744336000000</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="N55" s="3">
+        <v>31685005913.5264</v>
+      </c>
+      <c r="O55" s="2">
         <v>823257000000</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="2">
         <v>388598502382.573</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="2">
         <v>40415233436</v>
       </c>
-      <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="2">
         <v>2014</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>33387712766</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>23308212817</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>301499000000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>425326000000</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>228731000000</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="2">
         <v>308769000000</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="2">
         <v>35826925775</v>
       </c>
       <c r="I56" s="1">
+        <v>162631763879.129</v>
+      </c>
+      <c r="J56" s="2">
         <v>45730945274</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="2">
         <v>81035110533</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="2">
         <v>206225000000</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="2">
         <v>753832000000</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="N56" s="3">
+        <v>34095539038.1405</v>
+      </c>
+      <c r="O56" s="2">
         <v>798782000000</v>
       </c>
-      <c r="O56" s="1">
-        <v>401958066712.04901</v>
-      </c>
-      <c r="P56" s="1">
+      <c r="P56" s="2">
+        <v>401958066712.049</v>
+      </c>
+      <c r="Q56" s="2">
         <v>43228583935</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:17">
+      <c r="A57" s="2">
         <v>2015</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>31125851064</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>19559942331</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>330779000000</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="E57" s="1">
+        <v>393436064441.692</v>
+      </c>
+      <c r="F57" s="2">
         <v>180069000000</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="2">
         <v>299416000000</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="2">
         <v>37517410282</v>
       </c>
       <c r="I57" s="1">
+        <v>114041209704.221</v>
+      </c>
+      <c r="J57" s="2">
         <v>47084703151</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="2">
         <v>69830949285</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="2">
         <v>164641000000</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="2">
         <v>646002000000</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="N57" s="3">
+        <v>28392766694.6564</v>
+      </c>
+      <c r="O57" s="2">
         <v>717880000000</v>
       </c>
-      <c r="O57" s="1">
-        <v>370296255956.43298</v>
-      </c>
-      <c r="P57" s="1">
+      <c r="P57" s="2">
+        <v>370296255956.433</v>
+      </c>
+      <c r="Q57" s="2">
         <v>37733919936</v>
       </c>
     </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B58" s="1">
+        <v>31858510638.2979</v>
+      </c>
+      <c r="C58" s="1">
+        <v>19801664168.2788</v>
+      </c>
+      <c r="D58" s="1">
+        <v>336296921758.782</v>
+      </c>
+      <c r="E58" s="1">
+        <v>376755000000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>171489001692.047</v>
+      </c>
+      <c r="G58" s="1">
+        <v>318743685882.414</v>
+      </c>
+      <c r="H58" s="1">
+        <v>38654727746.4789</v>
+      </c>
+      <c r="I58" s="1">
+        <v>109859000000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>47536798648.0929</v>
+      </c>
+      <c r="K58" s="1">
+        <v>66293368010.4031</v>
+      </c>
+      <c r="L58" s="1">
+        <v>152468681318.681</v>
+      </c>
+      <c r="M58" s="1">
+        <v>646438380568.715</v>
+      </c>
+      <c r="N58" s="3">
+        <v>20733713551</v>
+      </c>
+      <c r="O58" s="1">
+        <v>857748989287.642</v>
+      </c>
+      <c r="P58" s="1">
+        <v>348743265715.395</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>27317605346.0714</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2015</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="4">
+        <v>2010</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="4"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>